--- a/输出.xlsx
+++ b/输出.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yll20\Desktop\work\genshin\genshin_spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D0182-B7E5-4C3E-A6F9-73A8B2E8D17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>圣遗物名称</t>
   </si>
@@ -103,7 +97,7 @@
     <t>攻击力</t>
   </si>
   <si>
-    <t>26</t>
+    <t>40</t>
   </si>
   <si>
     <t>暴击率</t>
@@ -139,12 +133,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,15 +146,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,23 +193,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -264,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,27 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,24 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,28 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.3125" customWidth="1"/>
-    <col min="2" max="2" width="11.26171875" customWidth="1"/>
-    <col min="4" max="4" width="10.7890625" customWidth="1"/>
-    <col min="7" max="7" width="9.734375" customWidth="1"/>
-    <col min="8" max="8" width="12.05078125" customWidth="1"/>
-    <col min="9" max="9" width="9.3125" customWidth="1"/>
-    <col min="10" max="10" width="13.1015625" customWidth="1"/>
-    <col min="12" max="12" width="12.89453125" customWidth="1"/>
-    <col min="14" max="14" width="13.15625" customWidth="1"/>
-    <col min="15" max="15" width="14.05078125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -656,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -703,7 +632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -725,8 +654,8 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
+      <c r="H4">
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -750,9 +679,54 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/输出.xlsx
+++ b/输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>圣遗物名称</t>
   </si>
@@ -70,18 +70,27 @@
     <t>战狂的蔷薇</t>
   </si>
   <si>
+    <t>教官的茶杯</t>
+  </si>
+  <si>
     <t>理之冠</t>
   </si>
   <si>
     <t>生之花</t>
   </si>
   <si>
+    <t>空之杯</t>
+  </si>
+  <si>
     <t>防御力</t>
   </si>
   <si>
     <t>生命值</t>
   </si>
   <si>
+    <t>攻击力</t>
+  </si>
+  <si>
     <t>43.5%</t>
   </si>
   <si>
@@ -91,24 +100,30 @@
     <t>2.839</t>
   </si>
   <si>
+    <t>34.8</t>
+  </si>
+  <si>
     <t>元素精通</t>
   </si>
   <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>7</t>
   </si>
   <si>
     <t>暴击率</t>
   </si>
   <si>
+    <t>元素充能效率</t>
+  </si>
+  <si>
     <t>2.7%</t>
   </si>
   <si>
     <t>4.1%</t>
   </si>
   <si>
+    <t>12.9%</t>
+  </si>
+  <si>
     <t>暴击伤害</t>
   </si>
   <si>
@@ -121,10 +136,16 @@
     <t>3.3%</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>3.7%</t>
   </si>
   <si>
     <t>4.7%</t>
+  </si>
+  <si>
+    <t>239</t>
   </si>
   <si>
     <t>流浪大地的乐团</t>
@@ -485,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,13 +564,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -558,28 +579,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
@@ -590,13 +611,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -605,31 +626,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -637,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -652,28 +673,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -684,13 +705,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -699,31 +720,219 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/输出.xlsx
+++ b/输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>圣遗物名称</t>
   </si>
@@ -61,91 +61,37 @@
     <t>所属套装</t>
   </si>
   <si>
-    <t>流放者头冠</t>
-  </si>
-  <si>
     <t>乐团的晨光</t>
   </si>
   <si>
-    <t>战狂的蔷薇</t>
-  </si>
-  <si>
-    <t>教官的茶杯</t>
-  </si>
-  <si>
-    <t>理之冠</t>
-  </si>
-  <si>
     <t>生之花</t>
   </si>
   <si>
-    <t>空之杯</t>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>3155</t>
+  </si>
+  <si>
+    <t>元素精通</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>2.7%</t>
   </si>
   <si>
     <t>防御力</t>
   </si>
   <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>43.5%</t>
-  </si>
-  <si>
-    <t>3155</t>
-  </si>
-  <si>
-    <t>2.839</t>
-  </si>
-  <si>
-    <t>34.8</t>
-  </si>
-  <si>
-    <t>元素精通</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>暴击率</t>
-  </si>
-  <si>
-    <t>元素充能效率</t>
-  </si>
-  <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>4.1%</t>
-  </si>
-  <si>
-    <t>12.9%</t>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-  </si>
-  <si>
-    <t>8.7%</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>3.3%</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>3.7%</t>
-  </si>
-  <si>
     <t>4.7%</t>
-  </si>
-  <si>
-    <t>239</t>
   </si>
   <si>
     <t>流浪大地的乐团</t>
@@ -506,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,375 +510,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
       <c r="O2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
